--- a/myData/Sites_Lon_Lat.xlsx
+++ b/myData/Sites_Lon_Lat.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAVORO_CHECCO\CALIBRAZIONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\39348\OneDrive\Documents\Github\3PGQslu\myData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74700496-0B28-44CB-85D3-2D5A58184CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="345" windowWidth="11550" windowHeight="12240"/>
+    <workbookView xWindow="696" yWindow="0" windowWidth="11544" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites_Lon_Lat" sheetId="1" r:id="rId1"/>
@@ -36,9 +37,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.0000000000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000000000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -519,51 +520,51 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Colore 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Colore 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Colore 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Calcolo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cella collegata" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Cella da controllare" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Colore 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Colore 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Colore 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Colore 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Colore 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Colore 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Neutrale" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo avviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Testo descrittivo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titolo" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titolo 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titolo 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titolo 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titolo 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Totale" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -874,21 +875,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -902,1236 +902,1236 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D2" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D2">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D3" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D3">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D4" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D4">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D5" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D5">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D6" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D6">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D7" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D7">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D8" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D8">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D9" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D9">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D10" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D10">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D11" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D11">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D12" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D12">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D13" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D13">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D14" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D14">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D15" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D15">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D16" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D16">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D17" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D17">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D18" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D18">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D19" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D19">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D20" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D20">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D21" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D21">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D22" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D22">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D23" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D23">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D24" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D24">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D25" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D25">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D26" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D26">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D27" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D27">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D28" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D28">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D29" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D29">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D30" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D30">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D31" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D31">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
-      <c r="C32">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D32" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D32">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
-      <c r="C33">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D33" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D33">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
-      <c r="C34">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D34" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D34">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
-      <c r="C35">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D35" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D35">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>35</v>
       </c>
-      <c r="C36">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D36" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D36">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>42</v>
       </c>
-      <c r="C37">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D37" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D37">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>43</v>
       </c>
-      <c r="C38">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D38" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D38">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>44</v>
       </c>
-      <c r="C39">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D39" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D39">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>45</v>
       </c>
-      <c r="C40">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D40" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D40">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>46</v>
       </c>
-      <c r="C41">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D41" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D41">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>47</v>
       </c>
-      <c r="C42">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D42" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D42">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>49</v>
       </c>
-      <c r="C43">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D43" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D43">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>50</v>
       </c>
-      <c r="C44">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D44" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D44">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>51</v>
       </c>
-      <c r="C45">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D45" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D45">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>52</v>
       </c>
-      <c r="C46">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D46" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D46">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>53</v>
       </c>
-      <c r="C47">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D47" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D47">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>54</v>
       </c>
-      <c r="C48">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D48" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D48">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>55</v>
       </c>
-      <c r="C49">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D49" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D49">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>56</v>
       </c>
-      <c r="C50">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D50" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D50">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>57</v>
       </c>
-      <c r="C51">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D51" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D51">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>58</v>
       </c>
-      <c r="C52">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D52" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D52">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>59</v>
       </c>
-      <c r="C53">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D53" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D53">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>60</v>
       </c>
-      <c r="C54">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D54" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D54">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>61</v>
       </c>
-      <c r="C55">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D55" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D55">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>62</v>
       </c>
-      <c r="C56">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D56" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D56">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>63</v>
       </c>
-      <c r="C57">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D57" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D57">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>64</v>
       </c>
-      <c r="C58">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D58" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D58">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>65</v>
       </c>
-      <c r="C59">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D59" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D59">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>66</v>
       </c>
-      <c r="C60">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D60" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D60">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <v>67</v>
       </c>
-      <c r="C61">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D61" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D61">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <v>68</v>
       </c>
-      <c r="C62">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D62" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D62">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
         <v>69</v>
       </c>
-      <c r="C63">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D63" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D63">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
         <v>70</v>
       </c>
-      <c r="C64">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D64" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D64">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <v>71</v>
       </c>
-      <c r="C65">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D65" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C65" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D65">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
         <v>72</v>
       </c>
-      <c r="C66">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D66" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D66">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
         <v>73</v>
       </c>
-      <c r="C67">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D67" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D67">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
         <v>74</v>
       </c>
-      <c r="C68">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D68" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C68" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D68">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
         <v>75</v>
       </c>
-      <c r="C69">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D69" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C69" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D69">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
         <v>79</v>
       </c>
-      <c r="C70">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D70" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D70">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
         <v>80</v>
       </c>
-      <c r="C71">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D71" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C71" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D71">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
         <v>81</v>
       </c>
-      <c r="C72">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D72" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D72">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
         <v>82</v>
       </c>
-      <c r="C73">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D73" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C73" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D73">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
         <v>83</v>
       </c>
-      <c r="C74">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D74" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C74" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D74">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
         <v>84</v>
       </c>
-      <c r="C75">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D75" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D75">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
         <v>85</v>
       </c>
-      <c r="C76">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D76" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C76" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D76">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
         <v>86</v>
       </c>
-      <c r="C77">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D77" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C77" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D77">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
         <v>87</v>
       </c>
-      <c r="C78">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D78" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C78" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D78">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
         <v>88</v>
       </c>
-      <c r="C79">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D79" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D79">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
         <v>89</v>
       </c>
-      <c r="C80">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D80" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C80" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D80">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
         <v>90</v>
       </c>
-      <c r="C81">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D81" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D81">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
         <v>97</v>
       </c>
-      <c r="C82">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D82" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D82">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
         <v>98</v>
       </c>
-      <c r="C83">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D83" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D83">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
         <v>99</v>
       </c>
-      <c r="C84">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D84" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C84" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D84">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
         <v>100</v>
       </c>
-      <c r="C85">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D85" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D85">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
         <v>101</v>
       </c>
-      <c r="C86">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D86" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C86" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D86">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
         <v>103</v>
       </c>
-      <c r="C87">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D87" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D87">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
         <v>104</v>
       </c>
-      <c r="C88">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D88" s="1">
-        <v>13.2144444444444</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D88">
+        <v>56.541666999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
         <v>105</v>
       </c>
-      <c r="C89">
-        <v>56.541666999999997</v>
-      </c>
-      <c r="D89" s="1">
-        <v>13.2144444444444</v>
+      <c r="C89" s="1">
+        <v>13.2144444444444</v>
+      </c>
+      <c r="D89">
+        <v>56.541666999999997</v>
       </c>
     </row>
   </sheetData>
